--- a/Charset.xlsx
+++ b/Charset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datalab\47_Characterset8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C0F6E0-E1B8-4303-8E04-9DCADC127A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4138203-11D7-40C8-BFD2-0ABDFB991A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4DB76DC6-0F2B-4260-B2E7-7D3039EE1270}"/>
   </bookViews>
